--- a/biology/Mycologie/Russula_tawai/Russula_tawai.xlsx
+++ b/biology/Mycologie/Russula_tawai/Russula_tawai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Russula tawai est une espèce de champignons (Fungi) basidiomycètes de la famille des Russulaceae. 
-Cette Russule est endémique de Nouvelle-Zélande et associée aux Nothofagus dont N. fusca et N. menziesii. Elle se caractérise par des lames jaune crème, typiquement avec des bords teintés de violet, des pleurocystides à paroi mince, des cheilocystides filamenteuses à paroi mince et un goût des lames lentement âcre. Elle appartient à la section Rigidae[1].
+Cette Russule est endémique de Nouvelle-Zélande et associée aux Nothofagus dont N. fusca et N. menziesii. Elle se caractérise par des lames jaune crème, typiquement avec des bords teintés de violet, des pleurocystides à paroi mince, des cheilocystides filamenteuses à paroi mince et un goût des lames lentement âcre. Elle appartient à la section Rigidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a et b (en) R. F. R. McNabb, « Russulaceae of New Zealand 2. Russula Pers. ex S. F. Gray », New Zealand Journal of Botany, vol. 11, no 4,‎ décembre 1973, p. 673–730 (ISSN 0028-825X et 1175-8643, DOI 10.1080/0028825X.1973.10430308, lire en ligne, consulté le 24 septembre 2021) page 706
